--- a/e2e_test_output_basic_1week_integration/simulation_output/module4/Module4Output_20240106.xlsx
+++ b/e2e_test_output_basic_1week_integration/simulation_output/module4/Module4Output_20240106.xlsx
@@ -518,14 +518,14 @@
         <v>45298</v>
       </c>
       <c r="G2" t="n">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="H2" t="n">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="n">
-        <v>229</v>
+        <v>220</v>
       </c>
     </row>
     <row r="3">
@@ -554,14 +554,14 @@
         <v>45298</v>
       </c>
       <c r="G3" t="n">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="H3" t="n">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="n">
-        <v>19</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/e2e_test_output_basic_1week_integration/simulation_output/module4/Module4Output_20240106.xlsx
+++ b/e2e_test_output_basic_1week_integration/simulation_output/module4/Module4Output_20240106.xlsx
@@ -19,10 +19,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -61,12 +58,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -432,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,125 +439,8 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>material</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>location</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>line</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>simulation_date</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>production_plan_date</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>available_date</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>uncon_planned_qty</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>con_planned_qty</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>changeover_id</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
           <t>produced_qty</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>MAT_A</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>PLANT_001</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>LINE_A</t>
-        </is>
-      </c>
-      <c r="D2" s="2" t="n">
-        <v>45297</v>
-      </c>
-      <c r="E2" s="2" t="n">
-        <v>45297</v>
-      </c>
-      <c r="F2" s="2" t="n">
-        <v>45298</v>
-      </c>
-      <c r="G2" t="n">
-        <v>230</v>
-      </c>
-      <c r="H2" t="n">
-        <v>230</v>
-      </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="n">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>MAT_B</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>PLANT_001</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>LINE_B</t>
-        </is>
-      </c>
-      <c r="D3" s="2" t="n">
-        <v>45297</v>
-      </c>
-      <c r="E3" s="2" t="n">
-        <v>45297</v>
-      </c>
-      <c r="F3" s="2" t="n">
-        <v>45298</v>
-      </c>
-      <c r="G3" t="n">
-        <v>64</v>
-      </c>
-      <c r="H3" t="n">
-        <v>64</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="n">
-        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -593,14 +472,58 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>sheet</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>row</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>issue</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>NetDemand</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Demand for material MAT_A at location PLANT_001 with requirement date 2024-01-06 is outside planning window [2024-01-08, 2024-01-08].</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>NetDemand</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Demand for material MAT_B at location PLANT_001 with requirement date 2024-01-06 is outside planning window [2024-01-10, 2024-01-10].</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -611,14 +534,57 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>location</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>changeover_type</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>count</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>time</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>cost</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>mu_loss</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/e2e_test_output_basic_1week_integration/simulation_output/module4/Module4Output_20240106.xlsx
+++ b/e2e_test_output_basic_1week_integration/simulation_output/module4/Module4Output_20240106.xlsx
@@ -506,7 +506,7 @@
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Demand for material MAT_A at location PLANT_001 with requirement date 2024-01-06 is outside planning window [2024-01-08, 2024-01-08].</t>
+          <t>Demand for material MAT_A at location PLANT_001 with requirement date 2024-01-06 is outside planning window [2024-01-07, 2024-01-07].</t>
         </is>
       </c>
     </row>
@@ -519,7 +519,7 @@
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Demand for material MAT_B at location PLANT_001 with requirement date 2024-01-06 is outside planning window [2024-01-10, 2024-01-10].</t>
+          <t>Demand for material MAT_B at location PLANT_001 with requirement date 2024-01-06 is outside planning window [2024-01-07, 2024-01-07].</t>
         </is>
       </c>
     </row>

--- a/e2e_test_output_basic_1week_integration/simulation_output/module4/Module4Output_20240106.xlsx
+++ b/e2e_test_output_basic_1week_integration/simulation_output/module4/Module4Output_20240106.xlsx
@@ -19,7 +19,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -58,11 +61,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -428,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,8 +443,89 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>material</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>location</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>simulation_date</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>production_plan_date</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>available_date</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>uncon_planned_qty</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>con_planned_qty</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>changeover_id</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
           <t>produced_qty</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>LINE_B</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="F2" s="2" t="n">
+        <v>45299</v>
+      </c>
+      <c r="G2" t="n">
+        <v>48</v>
+      </c>
+      <c r="H2" t="n">
+        <v>48</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -472,58 +557,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>sheet</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>row</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>issue</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>NetDemand</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Demand for material MAT_A at location PLANT_001 with requirement date 2024-01-06 is outside planning window [2024-01-07, 2024-01-07].</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>NetDemand</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Demand for material MAT_B at location PLANT_001 with requirement date 2024-01-06 is outside planning window [2024-01-07, 2024-01-07].</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -534,57 +575,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>date</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>location</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>line</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>changeover_type</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>count</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>time</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>cost</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>mu_loss</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/e2e_test_output_basic_1week_integration/simulation_output/module4/Module4Output_20240106.xlsx
+++ b/e2e_test_output_basic_1week_integration/simulation_output/module4/Module4Output_20240106.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -495,7 +495,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -505,7 +505,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>LINE_B</t>
+          <t>LINE_A</t>
         </is>
       </c>
       <c r="D2" s="2" t="n">
@@ -518,14 +518,50 @@
         <v>45299</v>
       </c>
       <c r="G2" t="n">
-        <v>48</v>
+        <v>430</v>
       </c>
       <c r="H2" t="n">
-        <v>48</v>
+        <v>430</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="n">
-        <v>44</v>
+        <v>410</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>LINE_B</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="F3" s="2" t="n">
+        <v>45299</v>
+      </c>
+      <c r="G3" t="n">
+        <v>144</v>
+      </c>
+      <c r="H3" t="n">
+        <v>144</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/e2e_test_output_basic_1week_integration/simulation_output/module4/Module4Output_20240106.xlsx
+++ b/e2e_test_output_basic_1week_integration/simulation_output/module4/Module4Output_20240106.xlsx
@@ -518,14 +518,14 @@
         <v>45299</v>
       </c>
       <c r="G2" t="n">
-        <v>430</v>
+        <v>690</v>
       </c>
       <c r="H2" t="n">
-        <v>430</v>
+        <v>690</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="n">
-        <v>410</v>
+        <v>656</v>
       </c>
     </row>
     <row r="3">
@@ -554,14 +554,14 @@
         <v>45299</v>
       </c>
       <c r="G3" t="n">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="H3" t="n">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="n">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>

--- a/e2e_test_output_basic_1week_integration/simulation_output/module4/Module4Output_20240106.xlsx
+++ b/e2e_test_output_basic_1week_integration/simulation_output/module4/Module4Output_20240106.xlsx
@@ -518,14 +518,14 @@
         <v>45299</v>
       </c>
       <c r="G2" t="n">
-        <v>690</v>
+        <v>840</v>
       </c>
       <c r="H2" t="n">
-        <v>690</v>
+        <v>840</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="n">
-        <v>656</v>
+        <v>798</v>
       </c>
     </row>
     <row r="3">
@@ -554,14 +554,14 @@
         <v>45299</v>
       </c>
       <c r="G3" t="n">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="H3" t="n">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="n">
-        <v>113</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
